--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2997.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2997.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.18309723810899</v>
+        <v>1.780058622360229</v>
       </c>
       <c r="B1">
-        <v>2.45716350002506</v>
+        <v>1.862804532051086</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.038267850875854</v>
       </c>
       <c r="D1">
-        <v>2.289216539207833</v>
+        <v>2.899649858474731</v>
       </c>
       <c r="E1">
-        <v>1.19990110343517</v>
+        <v>4.799004554748535</v>
       </c>
     </row>
   </sheetData>
